--- a/bots/crawl_ch/output/vegi_coop_2022-12-25.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-25.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6440,7 +6440,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7248,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9026,7 +9026,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9095,7 +9095,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9444,7 +9444,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -9992,7 +9992,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10126,7 +10126,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10532,7 +10532,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11019,7 +11019,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11084,7 +11084,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11220,7 +11220,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11910,7 +11910,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12442,7 +12442,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12627,7 +12627,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12692,7 +12692,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13102,7 +13102,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13382,7 +13382,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14630,7 +14630,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14699,7 +14699,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14819,7 +14819,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15022,7 +15022,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15570,7 +15570,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15639,7 +15639,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15781,7 +15781,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -15988,7 +15988,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16053,7 +16053,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16122,7 +16122,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16187,7 +16187,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16256,7 +16256,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16325,7 +16325,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16467,7 +16467,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16536,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16674,7 +16674,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16739,7 +16739,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16808,7 +16808,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16881,7 +16881,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -16950,7 +16950,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17159,7 +17159,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17210,7 +17210,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17275,7 +17275,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17417,7 +17417,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17559,7 +17559,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17774,7 +17774,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17847,7 +17847,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17912,7 +17912,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18127,7 +18127,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18342,7 +18342,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18549,7 +18549,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18618,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18687,7 +18687,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18752,7 +18752,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18821,7 +18821,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -18963,7 +18963,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19174,7 +19174,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19247,7 +19247,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19458,7 +19458,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19600,7 +19600,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19742,7 +19742,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19811,7 +19811,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19876,7 +19876,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20083,7 +20083,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20148,7 +20148,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20290,7 +20290,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20357,7 +20357,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20499,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20572,7 +20572,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20777,7 +20777,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20850,7 +20850,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -20988,7 +20988,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21061,7 +21061,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21130,7 +21130,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21195,7 +21195,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21260,7 +21260,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21402,7 +21402,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21532,7 +21532,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21745,7 +21745,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21814,7 +21814,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22029,7 +22029,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22167,7 +22167,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22309,7 +22309,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22382,7 +22382,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22455,7 +22455,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22524,7 +22524,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22666,7 +22666,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22735,7 +22735,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22808,7 +22808,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22871,7 +22871,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23082,7 +23082,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23224,7 +23224,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23439,7 +23439,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23512,7 +23512,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23585,7 +23585,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23654,7 +23654,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23727,7 +23727,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23859,7 +23859,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23924,7 +23924,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -23997,7 +23997,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24062,7 +24062,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24131,7 +24131,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24204,7 +24204,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24257,7 +24257,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24330,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24403,7 +24403,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24466,7 +24466,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24539,7 +24539,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24681,7 +24681,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24809,7 +24809,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25024,7 +25024,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25093,7 +25093,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25166,7 +25166,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25239,7 +25239,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25308,7 +25308,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25373,7 +25373,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25446,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25509,7 +25509,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25647,7 +25647,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25793,7 +25793,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25866,7 +25866,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26010,7 +26010,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26083,7 +26083,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26156,7 +26156,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26229,7 +26229,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26294,7 +26294,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26367,7 +26367,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26432,7 +26432,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26483,7 +26483,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26767,7 +26767,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -26974,7 +26974,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27043,7 +27043,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27116,7 +27116,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27189,7 +27189,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27262,7 +27262,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27335,7 +27335,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27404,7 +27404,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27477,7 +27477,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27688,7 +27688,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27899,7 +27899,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28045,7 +28045,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28183,7 +28183,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28256,7 +28256,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28325,7 +28325,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28398,7 +28398,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28463,7 +28463,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28512,7 +28512,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28656,7 +28656,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28729,7 +28729,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28802,7 +28802,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28875,7 +28875,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -28948,7 +28948,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29021,7 +29021,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29094,7 +29094,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29161,7 +29161,7 @@
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29234,7 +29234,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29307,7 +29307,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29376,7 +29376,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29449,7 +29449,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29514,7 +29514,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29581,7 +29581,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29648,7 +29648,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29794,7 +29794,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29859,7 +29859,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -29932,7 +29932,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30005,7 +30005,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30058,7 +30058,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30200,7 +30200,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30269,7 +30269,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30407,7 +30407,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30553,7 +30553,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30622,7 +30622,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30758,7 +30758,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30827,7 +30827,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30900,7 +30900,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -30973,7 +30973,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31046,7 +31046,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31111,7 +31111,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31184,7 +31184,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31237,7 +31237,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31310,7 +31310,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31383,7 +31383,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31517,7 +31517,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31586,7 +31586,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31659,7 +31659,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31726,7 +31726,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31795,7 +31795,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31864,7 +31864,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -31937,7 +31937,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32008,7 +32008,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32077,7 +32077,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32150,7 +32150,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32223,7 +32223,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32296,7 +32296,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32369,7 +32369,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32436,7 +32436,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32509,7 +32509,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32572,7 +32572,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32783,7 +32783,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32856,7 +32856,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32929,7 +32929,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -32994,7 +32994,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33067,7 +33067,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33140,7 +33140,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33203,7 +33203,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33276,7 +33276,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33418,7 +33418,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33483,7 +33483,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33552,7 +33552,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33617,7 +33617,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33690,7 +33690,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33763,7 +33763,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33828,7 +33828,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33897,7 +33897,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34041,7 +34041,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34110,7 +34110,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34183,7 +34183,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34256,7 +34256,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34329,7 +34329,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34386,7 +34386,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34455,7 +34455,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34502,7 +34502,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34571,7 +34571,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34636,7 +34636,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34709,7 +34709,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34776,7 +34776,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34849,7 +34849,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34918,7 +34918,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -34991,7 +34991,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35056,7 +35056,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35125,7 +35125,7 @@
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35267,7 +35267,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35332,7 +35332,7 @@
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35405,7 +35405,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35470,7 +35470,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35521,7 +35521,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35594,7 +35594,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35667,7 +35667,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35738,7 +35738,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35809,7 +35809,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35874,7 +35874,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -35947,7 +35947,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36016,7 +36016,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36089,7 +36089,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36156,7 +36156,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36229,7 +36229,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36300,7 +36300,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36369,7 +36369,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36442,7 +36442,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36588,7 +36588,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36661,7 +36661,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36730,7 +36730,7 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36803,7 +36803,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36866,7 +36866,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -36935,7 +36935,7 @@
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37008,7 +37008,7 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37077,7 +37077,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37140,7 +37140,7 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37213,7 +37213,7 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37280,7 +37280,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37422,7 +37422,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37495,7 +37495,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37558,7 +37558,7 @@
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37629,7 +37629,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37694,7 +37694,7 @@
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37757,7 +37757,7 @@
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37828,7 +37828,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37895,7 +37895,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -37960,7 +37960,7 @@
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -38031,7 +38031,7 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
@@ -38102,7 +38102,7 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-25 12:56:16</t>
+          <t>2022-12-25 20:51:25</t>
         </is>
       </c>
     </row>
